--- a/02_reports/node_b/NodeB_Candidates_ReviewQueue.xlsx
+++ b/02_reports/node_b/NodeB_Candidates_ReviewQueue.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,122 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The Trapping Mechanism at the AlGaN/GaN Interface and the Turn-On Characteristics of the p-GaN Direct-Coupled FET Logic Inverters</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nanomaterials</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Junfeng Yu; Jihong Ding; Tao Wang; Yukai Huang; Wenzhang Du; Jiao Liang; Hongping Ma; Qingchun Zhang; Liang Li; Wei Huang; Wei Zhang</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.3390/nano14241984</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/nano14241984</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>B3_non_cmos_logic_context; mentions_p_channel; mentions_n_channel; mentions_delay_metrics</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NODE_B2_GaN_CMOS_Logic_Demos</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>"GaN" complementary logic</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2026-02-03T04:29:09.402327+00:00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>The trapping mechanism at the AlGaN/GaN interface in the p-GaN high electron mobility transistors (HEMTs) and its impact on the turn-on characteristics of direct-coupled FET logic (DCFL) inverters were investigated across various supply voltages (VDD) and test frequencies (fm). The frequency-conductance method identified two trap states at the AlGaN/GaN interface (trap activation energy Ec-ET ranges from 0.345 eV to 0.363 eV and 0.438 eV to 0.47 eV). As VDD increased from 1.5 V to 5 V, the interface traps captured more electrons, increasing the channel resistance (Rchannel) and drift-region resistance (Rdrift) of the p-GaN HEMTs and raising the low-level voltage (VOL) from 0.56 V to 1.01 V. At fm = 1 kHz, sufficient trapping and de-trapping led to a delay of 220 µs and a VOL instability of 320 mV. Additionally, as fm increased from 1 kHz to 200 kHz, a positive shift in the threshold voltage of p-GaN HEMTs occurred due to the dominance of trapping. This shift caused VOL to rise from 1.02 V to 1.40 V and extended the fall time (tfall) from 153 ns to 1 µs. This investigation enhances the understanding of DCFL GaN inverters’ behaviors from the perspective of device physics on power switching applications.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Vertical integration: a key concept for future flexible and printed electronics</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Heesung Han; Chang‐Hyun Kim; Sungyeop Jung</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10.1088/2058-8585/ac7929</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/2058-8585/ac7929</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B3_non_cmos_logic_context</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>OA_CITER</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10.1002/aelm.201600046</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2026-02-03T04:34:40.343693+00:00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Abstract This review aims at introducing a vertical integration approach as a promising new driver of field-effect transistor circuits and systems, which can overcome limitations of flexible and printed electronics. A large portion of this article is dedicated to systematic categorization and illustration of important and recent demonstrations of vertically integrated circuit building blocks incorporating organic materials, metal-oxide semiconductors, nanotubes, and nanosheets. Key features of each of these materials platforms and their fabrication issues are also broadly discussed. Then, common technical requirements for high-performance devices and circuits are critically evaluated in view of the specific geometrical and theoretical aspects of vertically connected complementary digital logic inverters. Prominent technological opportunities and challenges for the vertical and three-dimensional transistor integration are finally addressed to further motivate active multidisciplinary research on related materials, devices, and systems.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02_reports/node_b/NodeB_Candidates_ReviewQueue.xlsx
+++ b/02_reports/node_b/NodeB_Candidates_ReviewQueue.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,55 +486,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Purely resistive load estimation for three‐phase inverter by using pseudo random binary sequence signal</t>
+          <t>The Trapping Mechanism at the AlGaN/GaN Interface and the Turn-On Characteristics of the p-GaN Direct-Coupled FET Logic Inverters</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Electrical Engineering in Japan</t>
+          <t>Nanomaterials</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Masataka Minami; Naoya Morinaka</t>
+          <t>Junfeng Yu; Jihong Ding; Tao Wang; Yukai Huang; Wenzhang Du; Jiao Liang; Hongping Ma; Qingchun Zhang; Liang Li; Wei Huang; Wei Zhang</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1002/eej.23438</t>
+          <t>10.3390/nano14241984</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/eej.23438</t>
+          <t>https://doi.org/10.3390/nano14241984</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B3_non_cmos_logic_context</t>
+          <t>B3_non_cmos_logic_context; mentions_p_channel; mentions_n_channel; mentions_delay_metrics</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>NODE_B3_Near_CMOS_Context</t>
+          <t>GaN_CMOS_A_Circuit_Demos</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>"GaN" "resistive load" inverter</t>
+          <t>"GaN" complementary logic</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-02-03T02:46:11.402155+00:00</t>
+          <t>2026-02-03T08:08:06.098249+00:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Abstract In recent years, the introduction of photovoltaic power generation systems has been increasing from the perspective of global warming countermeasures. However, there is a problem that it becomes difficult to adjust the supply and demand balance of electric power. Therefore, in this research, the inverter by using estimation signal estimates the load of the consumer, then we aim to adjust the supply‐demand balance at the demand side. By the verification of experimental, three‐phase inverter, which is assumed to be an industrial photovoltaic power generation system, estimates the load by using pseudo random binary sequence (PRBS) signal and two proposed methods. The load estimation results show that the error rate of the estimated resistance of each phase is within a few percent by using the two proposed methods, and the load estimation is achieved.</t>
+          <t>The trapping mechanism at the AlGaN/GaN interface in the p-GaN high electron mobility transistors (HEMTs) and its impact on the turn-on characteristics of direct-coupled FET logic (DCFL) inverters were investigated across various supply voltages (VDD) and test frequencies (fm). The frequency-conductance method identified two trap states at the AlGaN/GaN interface (trap activation energy Ec-ET ranges from 0.345 eV to 0.363 eV and 0.438 eV to 0.47 eV). As VDD increased from 1.5 V to 5 V, the interface traps captured more electrons, increasing the channel resistance (Rchannel) and drift-region resistance (Rdrift) of the p-GaN HEMTs and raising the low-level voltage (VOL) from 0.56 V to 1.01 V. At fm = 1 kHz, sufficient trapping and de-trapping led to a delay of 220 µs and a VOL instability of 320 mV. Additionally, as fm increased from 1 kHz to 200 kHz, a positive shift in the threshold voltage of p-GaN HEMTs occurred due to the dominance of trapping. This shift caused VOL to rise from 1.02 V to 1.40 V and extended the fall time (tfall) from 153 ns to 1 µs. This investigation enhances the understanding of DCFL GaN inverters’ behaviors from the perspective of device physics on power switching applications.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,346 +546,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Transit-time oscillations in nanoscale vacuum diode with a pure resistive load</t>
+          <t>New Mixed-Mode Design Methodology for High-Efficiency Outphasing Chireix Amplifiers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Physical Review Letters</t>
-        </is>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Anonymous</t>
+          <t>Hsiu‐Chen Chang; Yunsik Hahn; Patrick Roblin; Taylor W. Barton</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1103/cs6r-ftkh</t>
+          <t>10.1109/tcsi.2018.2882770</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/cs6r-ftkh</t>
+          <t>https://doi.org/10.1109/tcsi.2018.2882770</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B3_non_cmos_logic_context</t>
+          <t>B3_non_cmos_logic_context; mentions_n_channel</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>NODE_B3_Near_CMOS_Context</t>
+          <t>OA_CITER</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>"GaN" "resistive load" inverter</t>
+          <t>10.1109/mwsym.2014.6848251</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2026-02-03T02:46:11.402692+00:00</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>2026-02-03T08:14:57.946765+00:00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A new design methodology providing optimal mixed-mode operation for dual-input class-F outphasing Chireix amplifiers is presented. The design starts with single-transistor class-F simulations at the intrinsic I-V reference planes to directly select the optimal peak and backoff resistive loads R &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;min&lt;/sub&gt; and R &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;max&lt;/sub&gt; and input RF gate drives yielding the best combination of efficiencies and output powers without needing to perform a load pull simulation or measurement. New analytic equations expressed only in terms of R &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;min&lt;/sub&gt; and R &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;max&lt;/sub&gt; are given for designing the Chireix combiner at the current source reference planes. Nonlinear embedding is then used to predict the incident power and multi-harmonic source and load impedances required at the package reference planes to physically implement the power amplifier (PA). An analytic formula solely expressed in terms of Rmin and Rmax is reported for the peak and backoff outphasing angles required at the PA input reference planes. A Chireix outphasing PA is designed using two 15-W GaN HEMTs. A Chireix outphasing PA exhibits a peak efficiency of 72.58% with peak power of 43.97 dBm and a 8-dB backoff efficiency of 75.22% at 1.9 GHz. Measurements with 10-MHz LTE signals with 9.6-dB PAPR yield 59.4% average drain efficiency at 1.9 GHz while satisfying the 3GPP linearity requirements.</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Energy transformation without using filter on high resistive load</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Engineering review</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Erol Can</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10.30765/er.40.1.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.30765/er.40.1.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B3_non_cmos_logic_context</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>NODE_B3_Near_CMOS_Context</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>"GaN" "resistive load" inverter</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2026-02-03T02:46:11.402752+00:00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>In this paper, 9-level, 17-level, 19-level, 21-level, 27-level, and 39- level inverters with SPWM are presented. According to a switching function, the high-multilevel inverter design has been described since a new multi-level inverter structure is considered. The multilevel inverter structure is designed with placing switches and sources on levels. Pulse width modulation, controlling switches in the inverter structure, is also produced by comparison between triangles and sinus signals. Operating sequences of the switches are given in the table in order to demonstrate the inverter operation characteristic with the produced signals. Then, mathematical equations are formed by considering an operation of switches on the load. In simulations and experiments, the 9-level, 17- level, 19-level, 21-level, 27-level, and 39-level inverters are performed on the resistance (R) and inductance (L) loads with different resistance, because it is difficult to generate current and voltage with an acceptable harmonic distortion on the impedances which have high ohmic values. After applications of experimentation and simulation, the obtained results are compared with other published papers of results and the international IEEE standard, which is 5% for harmonic distortions of creating currents and voltages.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Performance Analysis of 4H-SiC Pseudo-D CMOS Inverter Circuits Employing Physical Charge Trapping Models</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Materials Science Forum</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Michael Waltl; Yoanlys Hernandez; Christian Schleich; Katja Waschneck; Bernhard Stampfer; Hans Reisinger; Tibor Grasser</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10.4028/p-pijkeu</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4028/p-pijkeu</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B3_non_cmos_logic_context</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NODE_B3_Near_CMOS_Context</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>"GaN" pseudo-CMOS inverter</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2026-02-03T02:46:12.901660+00:00</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>For the analysis of the characteristics and behavior of circuits prior to fabrication and to improve circuit performance, simulations using Spice tools are typically performed. Such tools rely on static compact models describing the behavior of the individual circuit components such as transistors. In reality, the behavior of the transistors changes over time due to aging, for instance, as a consequence of bias temperature instabilities (BTI). BTI is typically referred to as a drift of the threshold voltage of a transistor due to charge trapping at oxide and interface defects. To explain BTI, power-law-like mathematical expressions are often employed. However, using these simple formulas, the experimental data can only be replicated with limited accuracy. To evaluate the performance of logic inverter circuits made from 4H-SiC CMOS transistors with high precision, we use a physics-based defect model to describe the change of the device behavior from a defect-centric perspective. Our results indicate the limitations of using power-law-like formulas as they lead to an overly pessimistic estimation for circuit parameters.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cascadable direct current driven skyrmion logic inverter gate</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Physical Review B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Arash Mousavi Cheghabouri; Ferhat Katmis; Mehmet C. Onbasli</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.1103/physrevb.105.054411</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevb.105.054411</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B3_non_cmos_logic_context</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NODE_B3_Near_CMOS_Context</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>"GaN" logic inverter depletion</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2026-02-03T02:46:15.777907+00:00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The Trapping Mechanism at the AlGaN/GaN Interface and the Turn-On Characteristics of the p-GaN Direct-Coupled FET Logic Inverters</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Nanomaterials</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Junfeng Yu; Jihong Ding; Tao Wang; Yukai Huang; Wenzhang Du; Jiao Liang; Hongping Ma; Qingchun Zhang; Liang Li; Wei Huang; Wei Zhang</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.3390/nano14241984</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/nano14241984</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B3_non_cmos_logic_context; mentions_p_channel; mentions_n_channel; mentions_delay_metrics</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NODE_B2_GaN_CMOS_Logic_Demos</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>"GaN" complementary logic</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2026-02-03T04:29:09.402327+00:00</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>The trapping mechanism at the AlGaN/GaN interface in the p-GaN high electron mobility transistors (HEMTs) and its impact on the turn-on characteristics of direct-coupled FET logic (DCFL) inverters were investigated across various supply voltages (VDD) and test frequencies (fm). The frequency-conductance method identified two trap states at the AlGaN/GaN interface (trap activation energy Ec-ET ranges from 0.345 eV to 0.363 eV and 0.438 eV to 0.47 eV). As VDD increased from 1.5 V to 5 V, the interface traps captured more electrons, increasing the channel resistance (Rchannel) and drift-region resistance (Rdrift) of the p-GaN HEMTs and raising the low-level voltage (VOL) from 0.56 V to 1.01 V. At fm = 1 kHz, sufficient trapping and de-trapping led to a delay of 220 µs and a VOL instability of 320 mV. Additionally, as fm increased from 1 kHz to 200 kHz, a positive shift in the threshold voltage of p-GaN HEMTs occurred due to the dominance of trapping. This shift caused VOL to rise from 1.02 V to 1.40 V and extended the fall time (tfall) from 153 ns to 1 µs. This investigation enhances the understanding of DCFL GaN inverters’ behaviors from the perspective of device physics on power switching applications.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Vertical integration: a key concept for future flexible and printed electronics</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Heesung Han; Chang‐Hyun Kim; Sungyeop Jung</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10.1088/2058-8585/ac7929</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/2058-8585/ac7929</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B3_non_cmos_logic_context</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>OA_CITER</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10.1002/aelm.201600046</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2026-02-03T04:34:40.343693+00:00</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Abstract This review aims at introducing a vertical integration approach as a promising new driver of field-effect transistor circuits and systems, which can overcome limitations of flexible and printed electronics. A large portion of this article is dedicated to systematic categorization and illustration of important and recent demonstrations of vertically integrated circuit building blocks incorporating organic materials, metal-oxide semiconductors, nanotubes, and nanosheets. Key features of each of these materials platforms and their fabrication issues are also broadly discussed. Then, common technical requirements for high-performance devices and circuits are critically evaluated in view of the specific geometrical and theoretical aspects of vertically connected complementary digital logic inverters. Prominent technological opportunities and challenges for the vertical and three-dimensional transistor integration are finally addressed to further motivate active multidisciplinary research on related materials, devices, and systems.</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>Ambiguous Node-B evidence (B3-only or weak match)</t>
         </is>
